--- a/Data/Mfp/Mfp_Model_Base_09'2021-1.xlsx
+++ b/Data/Mfp/Mfp_Model_Base_09'2021-1.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Shulya403_works\all_gid_2\Data\Mfp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21924" windowHeight="10092"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$AH$408</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1430,9 +1428,6 @@
     <t>Laser</t>
   </si>
   <si>
-    <t>Jet</t>
-  </si>
-  <si>
     <t>Mono</t>
   </si>
   <si>
@@ -1452,12 +1447,15 @@
   </si>
   <si>
     <t>_09_21</t>
+  </si>
+  <si>
+    <t>Ink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1762,7 +1760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1772,13 +1770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1795,10 +1793,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" t="s">
         <v>473</v>
-      </c>
-      <c r="G1" t="s">
-        <v>474</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1822,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -1867,22 +1865,22 @@
         <v>467</v>
       </c>
       <c r="AD1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE1" t="s">
         <v>468</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>469</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>470</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>471</v>
       </c>
-      <c r="AH1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>116.83082535339719</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1965,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>119.55768353853169</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2048,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>121.24760601915185</v>
       </c>
@@ -2065,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2134,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>133.39899680802554</v>
       </c>
@@ -2151,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2220,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>161.40994072047422</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2309,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>192.28910168718653</v>
       </c>
@@ -2326,7 +2324,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2398,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>256.63474692202465</v>
       </c>
@@ -2415,7 +2413,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2490,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>277.07592339261288</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2579,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>529.40264477884136</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2671,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>566.06874145006839</v>
       </c>
@@ -2688,7 +2686,7 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -2763,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>412.62995896032834</v>
       </c>
@@ -2780,7 +2778,7 @@
         <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -2855,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>519.47104423164569</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -2947,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>723.65253077975387</v>
       </c>
@@ -2964,7 +2962,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -3039,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>182.05608755129958</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -3122,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>188.44733242134063</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -3205,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>202.6046511627907</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -3291,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>207.92065663474693</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -3377,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>219.90515275877794</v>
       </c>
@@ -3394,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -3460,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>279.54856361149115</v>
       </c>
@@ -3477,7 +3475,7 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3549,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>216.09302325581396</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -3635,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>243.78932968536253</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -3724,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>291.42088463292293</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -3813,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>327.53191974464204</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -3905,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>288.29685362517102</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -3997,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>326.05563155494758</v>
       </c>
@@ -4014,7 +4012,7 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -4092,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>336.24259005927951</v>
       </c>
@@ -4109,7 +4107,7 @@
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4187,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>401.40446876424994</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4282,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>320</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -4371,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>440</v>
       </c>
@@ -4388,7 +4386,7 @@
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -4466,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>601.91062471500277</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -4555,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>595.84131326949387</v>
       </c>
@@ -4572,7 +4570,7 @@
         <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -4647,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>712.56361149110819</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H33" t="s">
         <v>36</v>
@@ -4742,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1067.8727770177838</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H34" t="s">
         <v>36</v>
@@ -4837,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>578.29001367989065</v>
       </c>
@@ -4854,7 +4852,7 @@
         <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H35" t="s">
         <v>36</v>
@@ -4929,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>534.88372093023258</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H36" t="s">
         <v>36</v>
@@ -5024,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>607.55129958960333</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H37" t="s">
         <v>36</v>
@@ -5116,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>721.74418604651169</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H38" t="s">
         <v>36</v>
@@ -5211,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1209.5622435020521</v>
       </c>
@@ -5228,7 +5226,7 @@
         <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
@@ -5306,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>136.84931506849315</v>
       </c>
@@ -5323,7 +5321,7 @@
         <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H40" t="s">
         <v>36</v>
@@ -5389,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>198.49315068493149</v>
       </c>
@@ -5409,7 +5407,7 @@
         <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H41" t="s">
         <v>36</v>
@@ -5478,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>248.03009575923394</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H42" t="s">
         <v>36</v>
@@ -5564,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>235.85841313269495</v>
       </c>
@@ -5584,7 +5582,7 @@
         <v>69</v>
       </c>
       <c r="G43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H43" t="s">
         <v>36</v>
@@ -5656,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>327.24487004103969</v>
       </c>
@@ -5673,7 +5671,7 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H44" t="s">
         <v>36</v>
@@ -5742,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>318.26082991336074</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H45" t="s">
         <v>36</v>
@@ -5834,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>362.27633378932973</v>
       </c>
@@ -5854,7 +5852,7 @@
         <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H46" t="s">
         <v>36</v>
@@ -5932,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>416.29822161422715</v>
       </c>
@@ -5949,7 +5947,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H47" t="s">
         <v>36</v>
@@ -6024,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>493.27405380756909</v>
       </c>
@@ -6041,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H48" t="s">
         <v>36</v>
@@ -6116,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>589.73666210670319</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H49" t="s">
         <v>36</v>
@@ -6208,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>602.32558139534888</v>
       </c>
@@ -6225,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H50" t="s">
         <v>36</v>
@@ -6300,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>203.62243502051984</v>
       </c>
@@ -6317,7 +6315,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
@@ -6383,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>134.40492476060192</v>
       </c>
@@ -6400,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -6466,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>176.48426812585501</v>
       </c>
@@ -6483,7 +6481,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -6552,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>247.48290013679892</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -6644,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>245.1436388508892</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -6736,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>278.09165526675787</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>84</v>
       </c>
       <c r="G56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -6828,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>368.69767441860466</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
@@ -6920,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>877.97537619699051</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -7009,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1088.4350205198359</v>
       </c>
@@ -7026,7 +7024,7 @@
         <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -7098,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>277.70633834929276</v>
       </c>
@@ -7115,7 +7113,7 @@
         <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -7187,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>301.67236662106706</v>
       </c>
@@ -7204,7 +7202,7 @@
         <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -7279,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>454.96124031007804</v>
       </c>
@@ -7296,7 +7294,7 @@
         <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -7371,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>402.63229308005424</v>
       </c>
@@ -7388,7 +7386,7 @@
         <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -7463,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>529.44938440492479</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -7552,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>631.09439124487005</v>
       </c>
@@ -7569,7 +7567,7 @@
         <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -7641,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>71.819425444596448</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -7724,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>97.321477428180586</v>
       </c>
@@ -7741,7 +7739,7 @@
         <v>95</v>
       </c>
       <c r="G67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -7813,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>157.04286365709098</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -7896,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>158.89192886456911</v>
       </c>
@@ -7916,7 +7914,7 @@
         <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -7982,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>199.58960328317374</v>
       </c>
@@ -7999,7 +7997,7 @@
         <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -8074,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>294.43228454172367</v>
       </c>
@@ -8091,7 +8089,7 @@
         <v>99</v>
       </c>
       <c r="G71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -8166,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>329.65230278157776</v>
       </c>
@@ -8183,7 +8181,7 @@
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -8252,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>318.55449156406752</v>
       </c>
@@ -8272,7 +8270,7 @@
         <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
@@ -8344,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>532.67441860465124</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H74" t="s">
         <v>15</v>
@@ -8427,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>717.24350205198368</v>
       </c>
@@ -8444,7 +8442,7 @@
         <v>105</v>
       </c>
       <c r="G75" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H75" t="s">
         <v>15</v>
@@ -8513,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>534.10958904109589</v>
       </c>
@@ -8530,7 +8528,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
@@ -8599,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>697.55129958960333</v>
       </c>
@@ -8619,7 +8617,7 @@
         <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -8688,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>287.827633378933</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>111</v>
       </c>
       <c r="G78" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H78" t="s">
         <v>36</v>
@@ -8771,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>392.95827633378934</v>
       </c>
@@ -8788,7 +8786,7 @@
         <v>112</v>
       </c>
       <c r="G79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H79" t="s">
         <v>36</v>
@@ -8863,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>248.14500683994532</v>
       </c>
@@ -8880,7 +8878,7 @@
         <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H80" t="s">
         <v>36</v>
@@ -8946,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>248.11730506155953</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H81" t="s">
         <v>36</v>
@@ -9035,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>334.04377564979478</v>
       </c>
@@ -9052,7 +9050,7 @@
         <v>115</v>
       </c>
       <c r="G82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H82" t="s">
         <v>36</v>
@@ -9127,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>408.95006839945285</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H83" t="s">
         <v>36</v>
@@ -9222,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>444.25786593707255</v>
       </c>
@@ -9239,7 +9237,7 @@
         <v>117</v>
       </c>
       <c r="G84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H84" t="s">
         <v>36</v>
@@ -9317,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>420.13543091655271</v>
       </c>
@@ -9334,7 +9332,7 @@
         <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H85" t="s">
         <v>36</v>
@@ -9409,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>486.27086183310541</v>
       </c>
@@ -9426,7 +9424,7 @@
         <v>119</v>
       </c>
       <c r="G86" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H86" t="s">
         <v>36</v>
@@ -9504,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>511.90834473324219</v>
       </c>
@@ -9521,7 +9519,7 @@
         <v>120</v>
       </c>
       <c r="G87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H87" t="s">
         <v>36</v>
@@ -9596,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>562.72229822161432</v>
       </c>
@@ -9613,7 +9611,7 @@
         <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H88" t="s">
         <v>36</v>
@@ -9691,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>808.24384404924763</v>
       </c>
@@ -9708,7 +9706,7 @@
         <v>122</v>
       </c>
       <c r="G89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H89" t="s">
         <v>36</v>
@@ -9783,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>865.51983584131335</v>
       </c>
@@ -9800,7 +9798,7 @@
         <v>123</v>
       </c>
       <c r="G90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H90" t="s">
         <v>36</v>
@@ -9878,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>494.69220246238035</v>
       </c>
@@ -9895,7 +9893,7 @@
         <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H91" t="s">
         <v>36</v>
@@ -9967,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>499.31600547195626</v>
       </c>
@@ -9984,7 +9982,7 @@
         <v>125</v>
       </c>
       <c r="G92" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H92" t="s">
         <v>36</v>
@@ -10059,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>451.17191062471551</v>
       </c>
@@ -10076,7 +10074,7 @@
         <v>126</v>
       </c>
       <c r="G93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H93" t="s">
         <v>36</v>
@@ -10154,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>509.84952120383042</v>
       </c>
@@ -10171,7 +10169,7 @@
         <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
@@ -10246,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>533.00786593707255</v>
       </c>
@@ -10263,7 +10261,7 @@
         <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H95" t="s">
         <v>36</v>
@@ -10341,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>608.38577291381671</v>
       </c>
@@ -10358,7 +10356,7 @@
         <v>129</v>
       </c>
       <c r="G96" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H96" t="s">
         <v>36</v>
@@ -10436,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>755.53579571363412</v>
       </c>
@@ -10456,7 +10454,7 @@
         <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H97" t="s">
         <v>36</v>
@@ -10531,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>993.4336525307798</v>
       </c>
@@ -10548,7 +10546,7 @@
         <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H98" t="s">
         <v>36</v>
@@ -10626,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>42.266301869585043</v>
       </c>
@@ -10643,7 +10641,7 @@
         <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H99" t="s">
         <v>36</v>
@@ -10706,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>67.989056087551305</v>
       </c>
@@ -10723,7 +10721,7 @@
         <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H100" t="s">
         <v>36</v>
@@ -10792,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>60.516415868673057</v>
       </c>
@@ -10809,7 +10807,7 @@
         <v>134</v>
       </c>
       <c r="G101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H101" t="s">
         <v>36</v>
@@ -10875,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>65.588235294117652</v>
       </c>
@@ -10895,7 +10893,7 @@
         <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H102" t="s">
         <v>36</v>
@@ -10961,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>88.714090287277713</v>
       </c>
@@ -10978,7 +10976,7 @@
         <v>136</v>
       </c>
       <c r="G103" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H103" t="s">
         <v>36</v>
@@ -11047,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>94.664842681258563</v>
       </c>
@@ -11067,7 +11065,7 @@
         <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H104" t="s">
         <v>36</v>
@@ -11139,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>99.604651162790717</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>138</v>
       </c>
       <c r="G105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H105" t="s">
         <v>36</v>
@@ -11228,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>99.931600547195629</v>
       </c>
@@ -11245,7 +11243,7 @@
         <v>139</v>
       </c>
       <c r="G106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H106" t="s">
         <v>36</v>
@@ -11317,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>152.76333789329686</v>
       </c>
@@ -11334,7 +11332,7 @@
         <v>140</v>
       </c>
       <c r="G107" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H107" t="s">
         <v>36</v>
@@ -11409,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>197.8030095759234</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>141</v>
       </c>
       <c r="G108" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H108" t="s">
         <v>36</v>
@@ -11495,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>204.91792065663475</v>
       </c>
@@ -11512,7 +11510,7 @@
         <v>142</v>
       </c>
       <c r="G109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H109" t="s">
         <v>36</v>
@@ -11581,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>199.6511627906977</v>
       </c>
@@ -11598,7 +11596,7 @@
         <v>143</v>
       </c>
       <c r="G110" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H110" t="s">
         <v>36</v>
@@ -11664,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>195.60875512995898</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>145</v>
       </c>
       <c r="G111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H111" t="s">
         <v>36</v>
@@ -11750,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>200.36023711810307</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>146</v>
       </c>
       <c r="G112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H112" t="s">
         <v>36</v>
@@ -11836,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>201.16279069767444</v>
       </c>
@@ -11853,7 +11851,7 @@
         <v>147</v>
       </c>
       <c r="G113" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H113" t="s">
         <v>36</v>
@@ -11922,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>201.69972640218879</v>
       </c>
@@ -11942,7 +11940,7 @@
         <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H114" t="s">
         <v>36</v>
@@ -12014,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>346.23255813953489</v>
       </c>
@@ -12031,7 +12029,7 @@
         <v>149</v>
       </c>
       <c r="G115" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H115" t="s">
         <v>36</v>
@@ -12103,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>229.05608755129961</v>
       </c>
@@ -12123,7 +12121,7 @@
         <v>69</v>
       </c>
       <c r="G116" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H116" t="s">
         <v>36</v>
@@ -12195,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>422.07421340629276</v>
       </c>
@@ -12215,7 +12213,7 @@
         <v>110</v>
       </c>
       <c r="G117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H117" t="s">
         <v>36</v>
@@ -12284,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>435.69083447332423</v>
       </c>
@@ -12301,7 +12299,7 @@
         <v>152</v>
       </c>
       <c r="G118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H118" t="s">
         <v>36</v>
@@ -12376,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>375.1436388508892</v>
       </c>
@@ -12393,7 +12391,7 @@
         <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H119" t="s">
         <v>36</v>
@@ -12468,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>506</v>
       </c>
@@ -12485,7 +12483,7 @@
         <v>154</v>
       </c>
       <c r="G120" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H120" t="s">
         <v>36</v>
@@ -12563,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>139.12106703146375</v>
       </c>
@@ -12580,7 +12578,7 @@
         <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -12646,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>136.32694938440494</v>
       </c>
@@ -12663,7 +12661,7 @@
         <v>157</v>
       </c>
       <c r="G122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -12732,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>170.7090743274054</v>
       </c>
@@ -12749,7 +12747,7 @@
         <v>158</v>
       </c>
       <c r="G123" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -12815,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>170.98495212038304</v>
       </c>
@@ -12832,7 +12830,7 @@
         <v>159</v>
       </c>
       <c r="G124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
@@ -12898,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>198.71545827633381</v>
       </c>
@@ -12915,7 +12913,7 @@
         <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
@@ -12981,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>177.35294117647061</v>
       </c>
@@ -12998,7 +12996,7 @@
         <v>161</v>
       </c>
       <c r="G126" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -13067,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>331.02599179206567</v>
       </c>
@@ -13084,7 +13082,7 @@
         <v>162</v>
       </c>
       <c r="G127" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -13159,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>339.7948016415869</v>
       </c>
@@ -13176,7 +13174,7 @@
         <v>163</v>
       </c>
       <c r="G128" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -13248,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>338.20428636570909</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>164</v>
       </c>
       <c r="G129" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -13334,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>368.48666210670319</v>
       </c>
@@ -13351,7 +13349,7 @@
         <v>165</v>
       </c>
       <c r="G130" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -13417,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>386.68308253533979</v>
       </c>
@@ -13434,7 +13432,7 @@
         <v>167</v>
       </c>
       <c r="G131" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -13500,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>628.41860465116281</v>
       </c>
@@ -13517,7 +13515,7 @@
         <v>168</v>
       </c>
       <c r="G132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -13583,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>742.42407660738729</v>
       </c>
@@ -13600,7 +13598,7 @@
         <v>169</v>
       </c>
       <c r="G133" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -13666,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1118.9922480620151</v>
       </c>
@@ -13686,7 +13684,7 @@
         <v>171</v>
       </c>
       <c r="G134" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -13764,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>785.52211582307393</v>
       </c>
@@ -13781,7 +13779,7 @@
         <v>172</v>
       </c>
       <c r="G135" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
@@ -13853,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>530.63611491108077</v>
       </c>
@@ -13870,7 +13868,7 @@
         <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -13942,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>215.91883264933881</v>
       </c>
@@ -13959,7 +13957,7 @@
         <v>174</v>
       </c>
       <c r="G137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H137" t="s">
         <v>36</v>
@@ -14025,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>205.18467852257183</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>175</v>
       </c>
       <c r="G138" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H138" t="s">
         <v>36</v>
@@ -14108,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>229.74418604651163</v>
       </c>
@@ -14125,7 +14123,7 @@
         <v>176</v>
       </c>
       <c r="G139" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H139" t="s">
         <v>36</v>
@@ -14191,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>217.84541723666212</v>
       </c>
@@ -14208,7 +14206,7 @@
         <v>177</v>
       </c>
       <c r="G140" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H140" t="s">
         <v>36</v>
@@ -14277,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>238.64569083447336</v>
       </c>
@@ -14294,7 +14292,7 @@
         <v>178</v>
       </c>
       <c r="G141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H141" t="s">
         <v>36</v>
@@ -14363,7 +14361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>221.67578659370727</v>
       </c>
@@ -14380,7 +14378,7 @@
         <v>179</v>
       </c>
       <c r="G142" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H142" t="s">
         <v>36</v>
@@ -14449,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>294.11764705882354</v>
       </c>
@@ -14466,7 +14464,7 @@
         <v>180</v>
       </c>
       <c r="G143" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H143" t="s">
         <v>36</v>
@@ -14535,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>299</v>
       </c>
@@ -14552,7 +14550,7 @@
         <v>181</v>
       </c>
       <c r="G144" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H144" t="s">
         <v>36</v>
@@ -14621,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>299.58960328317374</v>
       </c>
@@ -14638,7 +14636,7 @@
         <v>182</v>
       </c>
       <c r="G145" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H145" t="s">
         <v>36</v>
@@ -14710,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>253.06429548563614</v>
       </c>
@@ -14727,7 +14725,7 @@
         <v>183</v>
       </c>
       <c r="G146" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H146" t="s">
         <v>36</v>
@@ -14793,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>443.077975376197</v>
       </c>
@@ -14810,7 +14808,7 @@
         <v>184</v>
       </c>
       <c r="G147" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H147" t="s">
         <v>36</v>
@@ -14885,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>393.90560875513</v>
       </c>
@@ -14902,7 +14900,7 @@
         <v>185</v>
       </c>
       <c r="G148" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H148" t="s">
         <v>36</v>
@@ -14974,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>506.6963064295486</v>
       </c>
@@ -14991,7 +14989,7 @@
         <v>186</v>
       </c>
       <c r="G149" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H149" t="s">
         <v>36</v>
@@ -15069,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>356.04309165526678</v>
       </c>
@@ -15086,7 +15084,7 @@
         <v>187</v>
       </c>
       <c r="G150" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H150" t="s">
         <v>36</v>
@@ -15158,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>410.53199574403425</v>
       </c>
@@ -15175,7 +15173,7 @@
         <v>188</v>
       </c>
       <c r="G151" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H151" t="s">
         <v>36</v>
@@ -15250,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>471.25094999239991</v>
       </c>
@@ -15267,7 +15265,7 @@
         <v>189</v>
       </c>
       <c r="G152" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H152" t="s">
         <v>36</v>
@@ -15342,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>534.45109439124496</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>190</v>
       </c>
       <c r="G153" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H153" t="s">
         <v>36</v>
@@ -15434,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>518.49886000911999</v>
       </c>
@@ -15451,7 +15449,7 @@
         <v>191</v>
       </c>
       <c r="G154" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H154" t="s">
         <v>36</v>
@@ -15529,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1002.4920200638394</v>
       </c>
@@ -15549,7 +15547,7 @@
         <v>66</v>
       </c>
       <c r="G155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H155" t="s">
         <v>36</v>
@@ -15627,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1002.4920200638394</v>
       </c>
@@ -15647,7 +15645,7 @@
         <v>102</v>
       </c>
       <c r="G156" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H156" t="s">
         <v>36</v>
@@ -15728,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>605.09233926128593</v>
       </c>
@@ -15745,7 +15743,7 @@
         <v>194</v>
       </c>
       <c r="G157" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H157" t="s">
         <v>36</v>
@@ -15820,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>709.57592339261294</v>
       </c>
@@ -15837,7 +15835,7 @@
         <v>195</v>
       </c>
       <c r="G158" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H158" t="s">
         <v>36</v>
@@ -15912,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>658.54651162790708</v>
       </c>
@@ -15932,7 +15930,7 @@
         <v>102</v>
       </c>
       <c r="G159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H159" t="s">
         <v>36</v>
@@ -16010,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>776.36456908344735</v>
       </c>
@@ -16030,7 +16028,7 @@
         <v>102</v>
       </c>
       <c r="G160" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H160" t="s">
         <v>36</v>
@@ -16108,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>461.8932968536252</v>
       </c>
@@ -16125,7 +16123,7 @@
         <v>198</v>
       </c>
       <c r="G161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H161" t="s">
         <v>36</v>
@@ -16191,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>713.37893296853633</v>
       </c>
@@ -16208,7 +16206,7 @@
         <v>199</v>
       </c>
       <c r="G162" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H162" t="s">
         <v>36</v>
@@ -16286,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1058.0232558139535</v>
       </c>
@@ -16306,7 +16304,7 @@
         <v>201</v>
       </c>
       <c r="G163" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H163" t="s">
         <v>36</v>
@@ -16384,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1330.294117647059</v>
       </c>
@@ -16401,7 +16399,7 @@
         <v>202</v>
       </c>
       <c r="G164" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H164" t="s">
         <v>36</v>
@@ -16479,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1380.9610123119016</v>
       </c>
@@ -16496,7 +16494,7 @@
         <v>203</v>
       </c>
       <c r="G165" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H165" t="s">
         <v>36</v>
@@ -16574,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>608.70554035567716</v>
       </c>
@@ -16591,7 +16589,7 @@
         <v>204</v>
       </c>
       <c r="G166" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H166" t="s">
         <v>36</v>
@@ -16666,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>530.73016415868676</v>
       </c>
@@ -16683,7 +16681,7 @@
         <v>205</v>
       </c>
       <c r="G167" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H167" t="s">
         <v>36</v>
@@ -16758,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4316.8249660786969</v>
       </c>
@@ -16775,7 +16773,7 @@
         <v>206</v>
       </c>
       <c r="G168" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H168" t="s">
         <v>36</v>
@@ -16850,7 +16848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5900</v>
       </c>
@@ -16867,7 +16865,7 @@
         <v>207</v>
       </c>
       <c r="G169" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H169" t="s">
         <v>36</v>
@@ -16942,7 +16940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>350.54719562243503</v>
       </c>
@@ -16962,7 +16960,7 @@
         <v>102</v>
       </c>
       <c r="G170" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -17034,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>582.4008207934337</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>102</v>
       </c>
       <c r="G171" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H171" t="s">
         <v>36</v>
@@ -17129,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>959.23392612859107</v>
       </c>
@@ -17149,7 +17147,7 @@
         <v>110</v>
       </c>
       <c r="G172" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H172" t="s">
         <v>36</v>
@@ -17224,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>116.07387140902874</v>
       </c>
@@ -17241,7 +17239,7 @@
         <v>213</v>
       </c>
       <c r="G173" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -17307,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>139.03100775193798</v>
       </c>
@@ -17324,7 +17322,7 @@
         <v>214</v>
       </c>
       <c r="G174" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -17393,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>108.87368901048792</v>
       </c>
@@ -17410,7 +17408,7 @@
         <v>215</v>
       </c>
       <c r="G175" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
@@ -17476,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>127.3711810305518</v>
       </c>
@@ -17493,7 +17491,7 @@
         <v>216</v>
       </c>
       <c r="G176" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H176" t="s">
         <v>15</v>
@@ -17562,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>198.96944824441405</v>
       </c>
@@ -17579,7 +17577,7 @@
         <v>217</v>
       </c>
       <c r="G177" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -17645,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>219.32330141358869</v>
       </c>
@@ -17662,7 +17660,7 @@
         <v>218</v>
       </c>
       <c r="G178" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -17731,7 +17729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>213.72435020519836</v>
       </c>
@@ -17748,7 +17746,7 @@
         <v>219</v>
       </c>
       <c r="G179" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -17820,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>215.52667578659373</v>
       </c>
@@ -17837,7 +17835,7 @@
         <v>220</v>
       </c>
       <c r="G180" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -17912,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>184.71728226174193</v>
       </c>
@@ -17929,7 +17927,7 @@
         <v>221</v>
       </c>
       <c r="G181" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -18004,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>381.62619699042409</v>
       </c>
@@ -18021,7 +18019,7 @@
         <v>222</v>
       </c>
       <c r="G182" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -18093,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>283.39443684450526</v>
       </c>
@@ -18110,7 +18108,7 @@
         <v>223</v>
       </c>
       <c r="G183" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -18182,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>333.71751025991796</v>
       </c>
@@ -18199,7 +18197,7 @@
         <v>224</v>
       </c>
       <c r="G184" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -18274,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>256.94938440492479</v>
       </c>
@@ -18291,7 +18289,7 @@
         <v>225</v>
       </c>
       <c r="G185" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -18360,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>451.39534883720933</v>
       </c>
@@ -18380,7 +18378,7 @@
         <v>201</v>
       </c>
       <c r="G186" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -18452,7 +18450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>457.32512539899687</v>
       </c>
@@ -18469,7 +18467,7 @@
         <v>227</v>
       </c>
       <c r="G187" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -18541,7 +18539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>648.4336525307798</v>
       </c>
@@ -18558,7 +18556,7 @@
         <v>228</v>
       </c>
       <c r="G188" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -18630,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>802.27086183310541</v>
       </c>
@@ -18647,7 +18645,7 @@
         <v>229</v>
       </c>
       <c r="G189" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H189" t="s">
         <v>36</v>
@@ -18719,7 +18717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>857.3187414500685</v>
       </c>
@@ -18736,7 +18734,7 @@
         <v>230</v>
       </c>
       <c r="G190" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H190" t="s">
         <v>36</v>
@@ -18808,7 +18806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1735.0177838577292</v>
       </c>
@@ -18825,7 +18823,7 @@
         <v>231</v>
       </c>
       <c r="G191" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -18897,7 +18895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3844.0492476060194</v>
       </c>
@@ -18914,7 +18912,7 @@
         <v>232</v>
       </c>
       <c r="G192" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H192" t="s">
         <v>15</v>
@@ -18986,7 +18984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5843.0642954856366</v>
       </c>
@@ -19003,7 +19001,7 @@
         <v>233</v>
       </c>
       <c r="G193" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
@@ -19075,7 +19073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>296.76470588235298</v>
       </c>
@@ -19092,7 +19090,7 @@
         <v>234</v>
       </c>
       <c r="G194" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H194" t="s">
         <v>15</v>
@@ -19158,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>245.1436388508892</v>
       </c>
@@ -19175,7 +19173,7 @@
         <v>235</v>
       </c>
       <c r="G195" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
@@ -19247,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>311.94070080862531</v>
       </c>
@@ -19264,7 +19262,7 @@
         <v>236</v>
       </c>
       <c r="G196" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -19336,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>473.54309165526678</v>
       </c>
@@ -19353,7 +19351,7 @@
         <v>237</v>
       </c>
       <c r="G197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
@@ -19425,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>408.22161422708621</v>
       </c>
@@ -19442,7 +19440,7 @@
         <v>238</v>
       </c>
       <c r="G198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
@@ -19517,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>572.70588235294122</v>
       </c>
@@ -19537,7 +19535,7 @@
         <v>171</v>
       </c>
       <c r="G199" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
@@ -19609,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>654.17236662106711</v>
       </c>
@@ -19626,7 +19624,7 @@
         <v>240</v>
       </c>
       <c r="G200" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -19698,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1373.9945280437757</v>
       </c>
@@ -19715,7 +19713,7 @@
         <v>241</v>
       </c>
       <c r="G201" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -19787,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1333.1497948016417</v>
       </c>
@@ -19804,7 +19802,7 @@
         <v>242</v>
       </c>
       <c r="G202" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -19876,7 +19874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1448.9363885088922</v>
       </c>
@@ -19893,7 +19891,7 @@
         <v>243</v>
       </c>
       <c r="G203" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -19959,7 +19957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1751.4418604651164</v>
       </c>
@@ -19976,7 +19974,7 @@
         <v>244</v>
       </c>
       <c r="G204" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -20048,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1612.0502735978114</v>
       </c>
@@ -20065,7 +20063,7 @@
         <v>245</v>
       </c>
       <c r="G205" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -20134,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3612.3780209758347</v>
       </c>
@@ -20151,7 +20149,7 @@
         <v>246</v>
       </c>
       <c r="G206" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H206" t="s">
         <v>15</v>
@@ -20223,7 +20221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>99.307797537619706</v>
       </c>
@@ -20240,7 +20238,7 @@
         <v>247</v>
       </c>
       <c r="G207" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
@@ -20312,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>91.343365253077977</v>
       </c>
@@ -20329,7 +20327,7 @@
         <v>248</v>
       </c>
       <c r="G208" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -20401,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>198</v>
       </c>
@@ -20418,7 +20416,7 @@
         <v>249</v>
       </c>
       <c r="G209" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -20487,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>127.48062015503901</v>
       </c>
@@ -20504,7 +20502,7 @@
         <v>250</v>
       </c>
       <c r="G210" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
@@ -20570,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>266.00205198358412</v>
       </c>
@@ -20587,7 +20585,7 @@
         <v>251</v>
       </c>
       <c r="G211" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -20653,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3287.6712328767121</v>
       </c>
@@ -20670,7 +20668,7 @@
         <v>252</v>
       </c>
       <c r="G212" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H212" t="s">
         <v>15</v>
@@ -20739,7 +20737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>168.90560875512998</v>
       </c>
@@ -20756,7 +20754,7 @@
         <v>253</v>
       </c>
       <c r="G213" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H213" t="s">
         <v>36</v>
@@ -20822,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>206.5389876880985</v>
       </c>
@@ -20839,7 +20837,7 @@
         <v>254</v>
       </c>
       <c r="G214" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H214" t="s">
         <v>36</v>
@@ -20908,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>190.46967624259031</v>
       </c>
@@ -20925,7 +20923,7 @@
         <v>255</v>
       </c>
       <c r="G215" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H215" t="s">
         <v>36</v>
@@ -20991,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>197.03693570451438</v>
       </c>
@@ -21008,7 +21006,7 @@
         <v>256</v>
       </c>
       <c r="G216" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H216" t="s">
         <v>36</v>
@@ -21077,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>270.59963520291865</v>
       </c>
@@ -21094,7 +21092,7 @@
         <v>257</v>
       </c>
       <c r="G217" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H217" t="s">
         <v>36</v>
@@ -21163,7 +21161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>201.70998632010946</v>
       </c>
@@ -21180,7 +21178,7 @@
         <v>258</v>
       </c>
       <c r="G218" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H218" t="s">
         <v>36</v>
@@ -21246,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>279.06976744186051</v>
       </c>
@@ -21263,7 +21261,7 @@
         <v>259</v>
       </c>
       <c r="G219" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H219" t="s">
         <v>36</v>
@@ -21335,7 +21333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>236.35020519835845</v>
       </c>
@@ -21352,7 +21350,7 @@
         <v>260</v>
       </c>
       <c r="G220" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H220" t="s">
         <v>36</v>
@@ -21427,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>327.87961696306434</v>
       </c>
@@ -21444,7 +21442,7 @@
         <v>261</v>
       </c>
       <c r="G221" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H221" t="s">
         <v>36</v>
@@ -21519,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>400.6839945280438</v>
       </c>
@@ -21536,7 +21534,7 @@
         <v>262</v>
       </c>
       <c r="G222" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H222" t="s">
         <v>36</v>
@@ -21614,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>326.94938440492479</v>
       </c>
@@ -21631,7 +21629,7 @@
         <v>263</v>
       </c>
       <c r="G223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H223" t="s">
         <v>36</v>
@@ -21703,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>257.85909712722298</v>
       </c>
@@ -21723,7 +21721,7 @@
         <v>171</v>
       </c>
       <c r="G224" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H224" t="s">
         <v>36</v>
@@ -21798,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>270.58367533059783</v>
       </c>
@@ -21818,7 +21816,7 @@
         <v>171</v>
       </c>
       <c r="G225" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H225" t="s">
         <v>36</v>
@@ -21893,7 +21891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>558.25068399452812</v>
       </c>
@@ -21910,7 +21908,7 @@
         <v>266</v>
       </c>
       <c r="G226" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H226" t="s">
         <v>36</v>
@@ -21985,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>439.83584131326955</v>
       </c>
@@ -22002,7 +22000,7 @@
         <v>267</v>
       </c>
       <c r="G227" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H227" t="s">
         <v>36</v>
@@ -22077,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>543.74829001367993</v>
       </c>
@@ -22094,7 +22092,7 @@
         <v>268</v>
       </c>
       <c r="G228" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H228" t="s">
         <v>36</v>
@@ -22172,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>476.88782489740083</v>
       </c>
@@ -22189,7 +22187,7 @@
         <v>269</v>
       </c>
       <c r="G229" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H229" t="s">
         <v>36</v>
@@ -22264,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1463.652530779754</v>
       </c>
@@ -22281,7 +22279,7 @@
         <v>270</v>
       </c>
       <c r="G230" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H230" t="s">
         <v>36</v>
@@ -22356,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2192.7257181942546</v>
       </c>
@@ -22373,7 +22371,7 @@
         <v>271</v>
       </c>
       <c r="G231" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H231" t="s">
         <v>36</v>
@@ -22445,7 +22443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2013.980848153215</v>
       </c>
@@ -22462,7 +22460,7 @@
         <v>272</v>
       </c>
       <c r="G232" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H232" t="s">
         <v>36</v>
@@ -22534,7 +22532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2430.574555403557</v>
       </c>
@@ -22551,7 +22549,7 @@
         <v>273</v>
       </c>
       <c r="G233" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H233" t="s">
         <v>36</v>
@@ -22623,7 +22621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2977.5170998632011</v>
       </c>
@@ -22640,7 +22638,7 @@
         <v>274</v>
       </c>
       <c r="G234" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H234" t="s">
         <v>36</v>
@@ -22715,7 +22713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>311.1183310533516</v>
       </c>
@@ -22732,7 +22730,7 @@
         <v>275</v>
       </c>
       <c r="G235" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H235" t="s">
         <v>36</v>
@@ -22804,7 +22802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>333.98996808025584</v>
       </c>
@@ -22821,7 +22819,7 @@
         <v>276</v>
       </c>
       <c r="G236" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H236" t="s">
         <v>36</v>
@@ -22896,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>370.52667578659373</v>
       </c>
@@ -22913,7 +22911,7 @@
         <v>277</v>
       </c>
       <c r="G237" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H237" t="s">
         <v>36</v>
@@ -22982,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>432.32558139534888</v>
       </c>
@@ -22999,7 +22997,7 @@
         <v>278</v>
       </c>
       <c r="G238" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H238" t="s">
         <v>36</v>
@@ -23074,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>498.70725034199728</v>
       </c>
@@ -23091,7 +23089,7 @@
         <v>279</v>
       </c>
       <c r="G239" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H239" t="s">
         <v>36</v>
@@ -23163,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>465.98723210214297</v>
       </c>
@@ -23180,7 +23178,7 @@
         <v>280</v>
       </c>
       <c r="G240" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H240" t="s">
         <v>36</v>
@@ -23255,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>616.04195166438649</v>
       </c>
@@ -23272,7 +23270,7 @@
         <v>281</v>
       </c>
       <c r="G241" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H241" t="s">
         <v>36</v>
@@ -23347,7 +23345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>629.27496580027366</v>
       </c>
@@ -23364,7 +23362,7 @@
         <v>282</v>
       </c>
       <c r="G242" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H242" t="s">
         <v>36</v>
@@ -23442,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>605.26675786593717</v>
       </c>
@@ -23459,7 +23457,7 @@
         <v>283</v>
       </c>
       <c r="G243" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H243" t="s">
         <v>36</v>
@@ -23534,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>814.36388508891935</v>
       </c>
@@ -23551,7 +23549,7 @@
         <v>284</v>
       </c>
       <c r="G244" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H244" t="s">
         <v>36</v>
@@ -23626,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2008.1121751025994</v>
       </c>
@@ -23643,7 +23641,7 @@
         <v>285</v>
       </c>
       <c r="G245" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H245" t="s">
         <v>36</v>
@@ -23715,7 +23713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3579.0013679890562</v>
       </c>
@@ -23732,7 +23730,7 @@
         <v>286</v>
       </c>
       <c r="G246" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H246" t="s">
         <v>36</v>
@@ -23804,7 +23802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>75.205479452054789</v>
       </c>
@@ -23821,7 +23819,7 @@
         <v>287</v>
       </c>
       <c r="G247" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H247" t="s">
         <v>36</v>
@@ -23884,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>38.431372549019635</v>
       </c>
@@ -23901,7 +23899,7 @@
         <v>288</v>
       </c>
       <c r="G248" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H248" t="s">
         <v>36</v>
@@ -23964,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>42.432082794307895</v>
       </c>
@@ -23981,7 +23979,7 @@
         <v>289</v>
       </c>
       <c r="G249" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H249" t="s">
         <v>36</v>
@@ -24047,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>53.590971272229829</v>
       </c>
@@ -24064,7 +24062,7 @@
         <v>290</v>
       </c>
       <c r="G250" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H250" t="s">
         <v>36</v>
@@ -24130,7 +24128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>52.119015047879621</v>
       </c>
@@ -24147,7 +24145,7 @@
         <v>291</v>
       </c>
       <c r="G251" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H251" t="s">
         <v>36</v>
@@ -24213,7 +24211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>54.582763337893304</v>
       </c>
@@ -24230,7 +24228,7 @@
         <v>292</v>
       </c>
       <c r="G252" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H252" t="s">
         <v>36</v>
@@ -24296,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>67.396260829913402</v>
       </c>
@@ -24313,7 +24311,7 @@
         <v>293</v>
       </c>
       <c r="G253" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H253" t="s">
         <v>36</v>
@@ -24379,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>54.582763337893304</v>
       </c>
@@ -24396,7 +24394,7 @@
         <v>294</v>
       </c>
       <c r="G254" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H254" t="s">
         <v>36</v>
@@ -24465,7 +24463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>73.863201094391243</v>
       </c>
@@ -24482,7 +24480,7 @@
         <v>295</v>
       </c>
       <c r="G255" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H255" t="s">
         <v>36</v>
@@ -24551,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>74.213406292749667</v>
       </c>
@@ -24568,7 +24566,7 @@
         <v>296</v>
       </c>
       <c r="G256" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H256" t="s">
         <v>36</v>
@@ -24637,7 +24635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>86.502507979936127</v>
       </c>
@@ -24654,7 +24652,7 @@
         <v>297</v>
       </c>
       <c r="G257" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H257" t="s">
         <v>36</v>
@@ -24723,7 +24721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>88.564979480164169</v>
       </c>
@@ -24740,7 +24738,7 @@
         <v>298</v>
       </c>
       <c r="G258" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H258" t="s">
         <v>36</v>
@@ -24806,7 +24804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>119.5263337893297</v>
       </c>
@@ -24823,7 +24821,7 @@
         <v>299</v>
       </c>
       <c r="G259" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H259" t="s">
         <v>36</v>
@@ -24892,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>147.99452804377566</v>
       </c>
@@ -24909,7 +24907,7 @@
         <v>300</v>
       </c>
       <c r="G260" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H260" t="s">
         <v>36</v>
@@ -24978,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>152.26630186958553</v>
       </c>
@@ -24995,7 +24993,7 @@
         <v>301</v>
       </c>
       <c r="G261" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H261" t="s">
         <v>36</v>
@@ -25064,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>151.56634746922026</v>
       </c>
@@ -25081,7 +25079,7 @@
         <v>302</v>
       </c>
       <c r="G262" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H262" t="s">
         <v>36</v>
@@ -25147,7 +25145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>159.13816689466486</v>
       </c>
@@ -25164,7 +25162,7 @@
         <v>303</v>
       </c>
       <c r="G263" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H263" t="s">
         <v>36</v>
@@ -25230,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>200.13679890560877</v>
       </c>
@@ -25247,7 +25245,7 @@
         <v>304</v>
       </c>
       <c r="G264" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H264" t="s">
         <v>36</v>
@@ -25316,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>184.40355677154582</v>
       </c>
@@ -25333,7 +25331,7 @@
         <v>305</v>
       </c>
       <c r="G265" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H265" t="s">
         <v>36</v>
@@ -25402,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>191.41176470588238</v>
       </c>
@@ -25419,7 +25417,7 @@
         <v>306</v>
       </c>
       <c r="G266" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H266" t="s">
         <v>36</v>
@@ -25485,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>204.85362517099864</v>
       </c>
@@ -25502,7 +25500,7 @@
         <v>307</v>
       </c>
       <c r="G267" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H267" t="s">
         <v>36</v>
@@ -25571,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>227.29138166894666</v>
       </c>
@@ -25588,7 +25586,7 @@
         <v>308</v>
       </c>
       <c r="G268" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H268" t="s">
         <v>36</v>
@@ -25657,7 +25655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>225.71648426812587</v>
       </c>
@@ -25674,7 +25672,7 @@
         <v>309</v>
       </c>
       <c r="G269" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H269" t="s">
         <v>36</v>
@@ -25749,7 +25747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>326.29274965800278</v>
       </c>
@@ -25766,7 +25764,7 @@
         <v>310</v>
       </c>
       <c r="G270" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H270" t="s">
         <v>36</v>
@@ -25841,7 +25839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>173.18741450068401</v>
       </c>
@@ -25858,7 +25856,7 @@
         <v>311</v>
       </c>
       <c r="G271" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H271" t="s">
         <v>36</v>
@@ -25933,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>249.56224350205201</v>
       </c>
@@ -25950,7 +25948,7 @@
         <v>312</v>
       </c>
       <c r="G272" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H272" t="s">
         <v>36</v>
@@ -26025,7 +26023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>282.30848153214777</v>
       </c>
@@ -26042,7 +26040,7 @@
         <v>313</v>
       </c>
       <c r="G273" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H273" t="s">
         <v>36</v>
@@ -26117,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>231.01778385772917</v>
       </c>
@@ -26134,7 +26132,7 @@
         <v>314</v>
       </c>
       <c r="G274" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H274" t="s">
         <v>36</v>
@@ -26209,7 +26207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>281.7373461012312</v>
       </c>
@@ -26226,7 +26224,7 @@
         <v>315</v>
       </c>
       <c r="G275" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H275" t="s">
         <v>36</v>
@@ -26295,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>244.2561559507524</v>
       </c>
@@ -26312,7 +26310,7 @@
         <v>316</v>
       </c>
       <c r="G276" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H276" t="s">
         <v>36</v>
@@ -26381,7 +26379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>258.53625170998635</v>
       </c>
@@ -26398,7 +26396,7 @@
         <v>317</v>
       </c>
       <c r="G277" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H277" t="s">
         <v>36</v>
@@ -26470,7 +26468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>256.37482900136803</v>
       </c>
@@ -26487,7 +26485,7 @@
         <v>318</v>
       </c>
       <c r="G278" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H278" t="s">
         <v>36</v>
@@ -26562,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>302</v>
       </c>
@@ -26579,7 +26577,7 @@
         <v>319</v>
       </c>
       <c r="G279" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H279" t="s">
         <v>36</v>
@@ -26645,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>484.56224350205201</v>
       </c>
@@ -26662,7 +26660,7 @@
         <v>320</v>
       </c>
       <c r="G280" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H280" t="s">
         <v>36</v>
@@ -26737,7 +26735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>765.73187414500694</v>
       </c>
@@ -26754,7 +26752,7 @@
         <v>321</v>
       </c>
       <c r="G281" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H281" t="s">
         <v>36</v>
@@ -26829,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>252.04742362061151</v>
       </c>
@@ -26846,7 +26844,7 @@
         <v>323</v>
       </c>
       <c r="G282" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H282" t="s">
         <v>15</v>
@@ -26912,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>260.50159598723189</v>
       </c>
@@ -26929,7 +26927,7 @@
         <v>324</v>
       </c>
       <c r="G283" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -27001,7 +26999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>336.51436388508898</v>
       </c>
@@ -27018,7 +27016,7 @@
         <v>325</v>
       </c>
       <c r="G284" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
@@ -27090,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>355.27633378932973</v>
       </c>
@@ -27107,7 +27105,7 @@
         <v>326</v>
       </c>
       <c r="G285" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H285" t="s">
         <v>15</v>
@@ -27182,7 +27180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>234.01960784313749</v>
       </c>
@@ -27199,7 +27197,7 @@
         <v>327</v>
       </c>
       <c r="G286" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H286" t="s">
         <v>15</v>
@@ -27268,7 +27266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>223.03693570451438</v>
       </c>
@@ -27285,7 +27283,7 @@
         <v>328</v>
       </c>
       <c r="G287" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H287" t="s">
         <v>15</v>
@@ -27357,7 +27355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>267.63201094391246</v>
       </c>
@@ -27374,7 +27372,7 @@
         <v>329</v>
       </c>
       <c r="G288" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H288" t="s">
         <v>15</v>
@@ -27449,7 +27447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1118.5636114911081</v>
       </c>
@@ -27466,7 +27464,7 @@
         <v>330</v>
       </c>
       <c r="G289" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H289" t="s">
         <v>15</v>
@@ -27538,7 +27536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>471.68034655722784</v>
       </c>
@@ -27555,7 +27553,7 @@
         <v>331</v>
       </c>
       <c r="G290" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H290" t="s">
         <v>15</v>
@@ -27627,7 +27625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>605.42134062927505</v>
       </c>
@@ -27644,7 +27642,7 @@
         <v>332</v>
       </c>
       <c r="G291" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H291" t="s">
         <v>15</v>
@@ -27716,7 +27714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>660.41450068399467</v>
       </c>
@@ -27733,7 +27731,7 @@
         <v>333</v>
       </c>
       <c r="G292" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H292" t="s">
         <v>15</v>
@@ -27805,7 +27803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>734.21067031463758</v>
       </c>
@@ -27822,7 +27820,7 @@
         <v>334</v>
       </c>
       <c r="G293" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H293" t="s">
         <v>15</v>
@@ -27894,7 +27892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2503.1782945736391</v>
       </c>
@@ -27911,7 +27909,7 @@
         <v>335</v>
       </c>
       <c r="G294" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H294" t="s">
         <v>15</v>
@@ -27983,7 +27981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>507.98084815321482</v>
       </c>
@@ -28000,7 +27998,7 @@
         <v>336</v>
       </c>
       <c r="G295" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H295" t="s">
         <v>15</v>
@@ -28072,7 +28070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>479.6101231190151</v>
       </c>
@@ -28089,7 +28087,7 @@
         <v>337</v>
       </c>
       <c r="G296" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H296" t="s">
         <v>15</v>
@@ -28164,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>485.83447332421343</v>
       </c>
@@ -28181,7 +28179,7 @@
         <v>338</v>
       </c>
       <c r="G297" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H297" t="s">
         <v>15</v>
@@ -28253,7 +28251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>527.53305973552267</v>
       </c>
@@ -28270,7 +28268,7 @@
         <v>339</v>
       </c>
       <c r="G298" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H298" t="s">
         <v>15</v>
@@ -28345,7 +28343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>567.81395348837214</v>
       </c>
@@ -28362,7 +28360,7 @@
         <v>340</v>
       </c>
       <c r="G299" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H299" t="s">
         <v>15</v>
@@ -28434,7 +28432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>627.12722298221615</v>
       </c>
@@ -28451,7 +28449,7 @@
         <v>341</v>
       </c>
       <c r="G300" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H300" t="s">
         <v>15</v>
@@ -28523,7 +28521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>896.10579115367102</v>
       </c>
@@ -28540,7 +28538,7 @@
         <v>342</v>
       </c>
       <c r="G301" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H301" t="s">
         <v>15</v>
@@ -28612,7 +28610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3212.8043775649799</v>
       </c>
@@ -28629,7 +28627,7 @@
         <v>343</v>
       </c>
       <c r="G302" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H302" t="s">
         <v>15</v>
@@ -28701,7 +28699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>400.78583371333019</v>
       </c>
@@ -28718,7 +28716,7 @@
         <v>344</v>
       </c>
       <c r="G303" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H303" t="s">
         <v>36</v>
@@ -28784,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>411.45006839945285</v>
       </c>
@@ -28801,7 +28799,7 @@
         <v>345</v>
       </c>
       <c r="G304" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H304" t="s">
         <v>36</v>
@@ -28870,7 +28868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>488.88166894664846</v>
       </c>
@@ -28887,7 +28885,7 @@
         <v>346</v>
       </c>
       <c r="G305" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H305" t="s">
         <v>36</v>
@@ -28959,7 +28957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>497.8932968536252</v>
       </c>
@@ -28976,7 +28974,7 @@
         <v>347</v>
       </c>
       <c r="G306" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H306" t="s">
         <v>36</v>
@@ -29051,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>422.42818057455543</v>
       </c>
@@ -29068,7 +29066,7 @@
         <v>348</v>
       </c>
       <c r="G307" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H307" t="s">
         <v>36</v>
@@ -29140,7 +29138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>670.32558139534888</v>
       </c>
@@ -29157,7 +29155,7 @@
         <v>349</v>
       </c>
       <c r="G308" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H308" t="s">
         <v>36</v>
@@ -29229,7 +29227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>710.97856817145464</v>
       </c>
@@ -29246,7 +29244,7 @@
         <v>350</v>
       </c>
       <c r="G309" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H309" t="s">
         <v>36</v>
@@ -29321,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>442.85636114911085</v>
       </c>
@@ -29338,7 +29336,7 @@
         <v>351</v>
       </c>
       <c r="G310" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H310" t="s">
         <v>36</v>
@@ -29413,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>499.94984040127684</v>
       </c>
@@ -29430,7 +29428,7 @@
         <v>352</v>
       </c>
       <c r="G311" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H311" t="s">
         <v>36</v>
@@ -29508,7 +29506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>748.58732330141368</v>
       </c>
@@ -29525,7 +29523,7 @@
         <v>353</v>
       </c>
       <c r="G312" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H312" t="s">
         <v>36</v>
@@ -29603,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>944.71956224350208</v>
       </c>
@@ -29620,7 +29618,7 @@
         <v>354</v>
       </c>
       <c r="G313" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H313" t="s">
         <v>36</v>
@@ -29692,7 +29690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>880.57455540355681</v>
       </c>
@@ -29709,7 +29707,7 @@
         <v>355</v>
       </c>
       <c r="G314" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H314" t="s">
         <v>36</v>
@@ -29784,7 +29782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>910.52895576835397</v>
       </c>
@@ -29801,7 +29799,7 @@
         <v>356</v>
       </c>
       <c r="G315" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H315" t="s">
         <v>36</v>
@@ -29876,7 +29874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1125.1025991792067</v>
       </c>
@@ -29893,7 +29891,7 @@
         <v>357</v>
       </c>
       <c r="G316" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H316" t="s">
         <v>36</v>
@@ -29968,7 +29966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1556.7715458276334</v>
       </c>
@@ -29985,7 +29983,7 @@
         <v>358</v>
       </c>
       <c r="G317" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H317" t="s">
         <v>36</v>
@@ -30060,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>528.57729138166894</v>
       </c>
@@ -30077,7 +30075,7 @@
         <v>359</v>
       </c>
       <c r="G318" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H318" t="s">
         <v>36</v>
@@ -30152,7 +30150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>640.26903784769729</v>
       </c>
@@ -30169,7 +30167,7 @@
         <v>360</v>
       </c>
       <c r="G319" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H319" t="s">
         <v>36</v>
@@ -30247,7 +30245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>889.0560875512997</v>
       </c>
@@ -30264,7 +30262,7 @@
         <v>361</v>
       </c>
       <c r="G320" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H320" t="s">
         <v>36</v>
@@ -30339,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>670.31463748290014</v>
       </c>
@@ -30356,7 +30354,7 @@
         <v>362</v>
       </c>
       <c r="G321" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H321" t="s">
         <v>36</v>
@@ -30434,7 +30432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>976.68946648426822</v>
       </c>
@@ -30451,7 +30449,7 @@
         <v>363</v>
       </c>
       <c r="G322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H322" t="s">
         <v>36</v>
@@ -30523,7 +30521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>997.87414500684008</v>
       </c>
@@ -30540,7 +30538,7 @@
         <v>364</v>
       </c>
       <c r="G323" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H323" t="s">
         <v>36</v>
@@ -30615,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1503.6935704514365</v>
       </c>
@@ -30632,7 +30630,7 @@
         <v>365</v>
       </c>
       <c r="G324" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H324" t="s">
         <v>36</v>
@@ -30707,7 +30705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1448.0984952120384</v>
       </c>
@@ -30724,7 +30722,7 @@
         <v>366</v>
       </c>
       <c r="G325" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H325" t="s">
         <v>36</v>
@@ -30799,7 +30797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>94.130414956680355</v>
       </c>
@@ -30816,7 +30814,7 @@
         <v>368</v>
       </c>
       <c r="G326" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H326" t="s">
         <v>15</v>
@@ -30882,7 +30880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>94.236206110351134</v>
       </c>
@@ -30899,7 +30897,7 @@
         <v>369</v>
       </c>
       <c r="G327" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H327" t="s">
         <v>15</v>
@@ -30965,7 +30963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>98.433652530779767</v>
       </c>
@@ -30982,7 +30980,7 @@
         <v>370</v>
       </c>
       <c r="G328" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H328" t="s">
         <v>15</v>
@@ -31048,7 +31046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>104.63383492932057</v>
       </c>
@@ -31065,7 +31063,7 @@
         <v>371</v>
       </c>
       <c r="G329" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H329" t="s">
         <v>15</v>
@@ -31134,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>104.24076607387141</v>
       </c>
@@ -31151,7 +31149,7 @@
         <v>372</v>
       </c>
       <c r="G330" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H330" t="s">
         <v>15</v>
@@ -31223,7 +31221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>90.355677154582764</v>
       </c>
@@ -31243,7 +31241,7 @@
         <v>374</v>
       </c>
       <c r="G331" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H331" t="s">
         <v>15</v>
@@ -31309,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>101.86046511627907</v>
       </c>
@@ -31329,7 +31327,7 @@
         <v>374</v>
       </c>
       <c r="G332" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H332" t="s">
         <v>15</v>
@@ -31395,7 +31393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>143.98996808025535</v>
       </c>
@@ -31412,7 +31410,7 @@
         <v>376</v>
       </c>
       <c r="G333" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H333" t="s">
         <v>15</v>
@@ -31481,7 +31479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>158.92749658002737</v>
       </c>
@@ -31498,7 +31496,7 @@
         <v>377</v>
       </c>
       <c r="G334" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H334" t="s">
         <v>15</v>
@@ -31570,7 +31568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>164.15868673050616</v>
       </c>
@@ -31587,7 +31585,7 @@
         <v>378</v>
       </c>
       <c r="G335" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H335" t="s">
         <v>15</v>
@@ -31659,7 +31657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>208.21431828545374</v>
       </c>
@@ -31676,7 +31674,7 @@
         <v>379</v>
       </c>
       <c r="G336" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H336" t="s">
         <v>15</v>
@@ -31748,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>195</v>
       </c>
@@ -31765,7 +31763,7 @@
         <v>380</v>
       </c>
       <c r="G337" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H337" t="s">
         <v>15</v>
@@ -31837,7 +31835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>227.91244870041044</v>
       </c>
@@ -31857,7 +31855,7 @@
         <v>102</v>
       </c>
       <c r="G338" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H338" t="s">
         <v>15</v>
@@ -31929,7 +31927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>244.5508435932513</v>
       </c>
@@ -31949,7 +31947,7 @@
         <v>102</v>
       </c>
       <c r="G339" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H339" t="s">
         <v>15</v>
@@ -32024,7 +32022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>147.64249886000911</v>
       </c>
@@ -32041,7 +32039,7 @@
         <v>383</v>
       </c>
       <c r="G340" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H340" t="s">
         <v>36</v>
@@ -32107,7 +32105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>154.93844049247608</v>
       </c>
@@ -32124,7 +32122,7 @@
         <v>384</v>
       </c>
       <c r="G341" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H341" t="s">
         <v>36</v>
@@ -32193,7 +32191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>195.19015047879617</v>
       </c>
@@ -32210,7 +32208,7 @@
         <v>385</v>
       </c>
       <c r="G342" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H342" t="s">
         <v>36</v>
@@ -32282,7 +32280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>157.45827633378931</v>
       </c>
@@ -32299,7 +32297,7 @@
         <v>386</v>
       </c>
       <c r="G343" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H343" t="s">
         <v>36</v>
@@ -32368,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>199.3091655266758</v>
       </c>
@@ -32385,7 +32383,7 @@
         <v>387</v>
       </c>
       <c r="G344" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H344" t="s">
         <v>36</v>
@@ -32457,7 +32455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>203.00159598723212</v>
       </c>
@@ -32474,7 +32472,7 @@
         <v>388</v>
       </c>
       <c r="G345" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H345" t="s">
         <v>36</v>
@@ -32549,7 +32547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>271.49384404924763</v>
       </c>
@@ -32566,7 +32564,7 @@
         <v>389</v>
       </c>
       <c r="G346" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H346" t="s">
         <v>36</v>
@@ -32644,7 +32642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>265.40720474236207</v>
       </c>
@@ -32661,7 +32659,7 @@
         <v>390</v>
       </c>
       <c r="G347" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H347" t="s">
         <v>36</v>
@@ -32733,7 +32731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>257.79753761969909</v>
       </c>
@@ -32750,7 +32748,7 @@
         <v>391</v>
       </c>
       <c r="G348" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H348" t="s">
         <v>36</v>
@@ -32822,7 +32820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>337.87961696306434</v>
       </c>
@@ -32839,7 +32837,7 @@
         <v>392</v>
       </c>
       <c r="G349" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H349" t="s">
         <v>36</v>
@@ -32914,7 +32912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>338.49384404924763</v>
       </c>
@@ -32931,7 +32929,7 @@
         <v>393</v>
       </c>
       <c r="G350" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H350" t="s">
         <v>36</v>
@@ -33006,7 +33004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>320.79343365253078</v>
       </c>
@@ -33026,7 +33024,7 @@
         <v>110</v>
       </c>
       <c r="G351" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H351" t="s">
         <v>36</v>
@@ -33098,7 +33096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>298.30825353397171</v>
       </c>
@@ -33118,7 +33116,7 @@
         <v>110</v>
       </c>
       <c r="G352" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H352" t="s">
         <v>36</v>
@@ -33190,7 +33188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>396.33378932968537</v>
       </c>
@@ -33210,7 +33208,7 @@
         <v>110</v>
       </c>
       <c r="G353" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H353" t="s">
         <v>36</v>
@@ -33285,7 +33283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>213.19083447332423</v>
       </c>
@@ -33302,7 +33300,7 @@
         <v>398</v>
       </c>
       <c r="G354" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H354" t="s">
         <v>15</v>
@@ -33377,7 +33375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>218.66279069767444</v>
       </c>
@@ -33394,7 +33392,7 @@
         <v>399</v>
       </c>
       <c r="G355" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H355" t="s">
         <v>15</v>
@@ -33466,7 +33464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>333.13497492020042</v>
       </c>
@@ -33483,7 +33481,7 @@
         <v>400</v>
       </c>
       <c r="G356" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H356" t="s">
         <v>15</v>
@@ -33555,7 +33553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>413.29685362517102</v>
       </c>
@@ -33572,7 +33570,7 @@
         <v>401</v>
       </c>
       <c r="G357" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H357" t="s">
         <v>15</v>
@@ -33644,7 +33642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>879.90424076607394</v>
       </c>
@@ -33661,7 +33659,7 @@
         <v>402</v>
       </c>
       <c r="G358" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H358" t="s">
         <v>15</v>
@@ -33733,7 +33731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1089.5212038303694</v>
       </c>
@@ -33750,7 +33748,7 @@
         <v>403</v>
       </c>
       <c r="G359" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H359" t="s">
         <v>15</v>
@@ -33822,7 +33820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6163.160054719563</v>
       </c>
@@ -33839,7 +33837,7 @@
         <v>404</v>
       </c>
       <c r="G360" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H360" t="s">
         <v>15</v>
@@ -33911,7 +33909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>236.04195166438672</v>
       </c>
@@ -33928,7 +33926,7 @@
         <v>405</v>
       </c>
       <c r="G361" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H361" t="s">
         <v>15</v>
@@ -34003,7 +34001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>570.56908344733245</v>
       </c>
@@ -34020,7 +34018,7 @@
         <v>406</v>
       </c>
       <c r="G362" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H362" t="s">
         <v>15</v>
@@ -34095,7 +34093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>341.35202918376677</v>
       </c>
@@ -34112,7 +34110,7 @@
         <v>407</v>
       </c>
       <c r="G363" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H363" t="s">
         <v>15</v>
@@ -34187,7 +34185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>941.90834473324219</v>
       </c>
@@ -34204,7 +34202,7 @@
         <v>408</v>
       </c>
       <c r="G364" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H364" t="s">
         <v>15</v>
@@ -34276,7 +34274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>294.80984952120383</v>
       </c>
@@ -34293,7 +34291,7 @@
         <v>409</v>
       </c>
       <c r="G365" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H365" t="s">
         <v>36</v>
@@ -34371,7 +34369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>321.36798905608759</v>
       </c>
@@ -34388,7 +34386,7 @@
         <v>410</v>
       </c>
       <c r="G366" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H366" t="s">
         <v>36</v>
@@ -34460,7 +34458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>424.10396716826267</v>
       </c>
@@ -34477,7 +34475,7 @@
         <v>411</v>
       </c>
       <c r="G367" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H367" t="s">
         <v>36</v>
@@ -34552,7 +34550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>509.5896032831738</v>
       </c>
@@ -34569,7 +34567,7 @@
         <v>412</v>
       </c>
       <c r="G368" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H368" t="s">
         <v>36</v>
@@ -34644,7 +34642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1672.96853625171</v>
       </c>
@@ -34661,7 +34659,7 @@
         <v>413</v>
       </c>
       <c r="G369" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H369" t="s">
         <v>36</v>
@@ -34733,7 +34731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2883.9329685362518</v>
       </c>
@@ -34750,7 +34748,7 @@
         <v>414</v>
       </c>
       <c r="G370" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H370" t="s">
         <v>36</v>
@@ -34828,7 +34826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>0</v>
       </c>
@@ -34839,7 +34837,7 @@
         <v>415</v>
       </c>
       <c r="G371" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H371" t="s">
         <v>36</v>
@@ -34917,7 +34915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>378.50615595075243</v>
       </c>
@@ -34934,7 +34932,7 @@
         <v>416</v>
       </c>
       <c r="G372" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H372" t="s">
         <v>36</v>
@@ -35012,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>483.43023255813955</v>
       </c>
@@ -35029,7 +35027,7 @@
         <v>417</v>
       </c>
       <c r="G373" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H373" t="s">
         <v>36</v>
@@ -35107,7 +35105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>543.81440948472437</v>
       </c>
@@ -35124,7 +35122,7 @@
         <v>418</v>
       </c>
       <c r="G374" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H374" t="s">
         <v>36</v>
@@ -35202,7 +35200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>675.43775649794804</v>
       </c>
@@ -35219,7 +35217,7 @@
         <v>419</v>
       </c>
       <c r="G375" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H375" t="s">
         <v>36</v>
@@ -35297,7 +35295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1263.3926128590972</v>
       </c>
@@ -35314,7 +35312,7 @@
         <v>420</v>
       </c>
       <c r="G376" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H376" t="s">
         <v>36</v>
@@ -35392,7 +35390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>103.6935704514364</v>
       </c>
@@ -35409,7 +35407,7 @@
         <v>422</v>
       </c>
       <c r="G377" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H377" t="s">
         <v>15</v>
@@ -35478,7 +35476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>170.06839945280439</v>
       </c>
@@ -35495,7 +35493,7 @@
         <v>423</v>
       </c>
       <c r="G378" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H378" t="s">
         <v>15</v>
@@ -35567,7 +35565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>160.60921112631098</v>
       </c>
@@ -35584,7 +35582,7 @@
         <v>424</v>
       </c>
       <c r="G379" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H379" t="s">
         <v>15</v>
@@ -35659,7 +35657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>331.9589603283174</v>
       </c>
@@ -35676,7 +35674,7 @@
         <v>425</v>
       </c>
       <c r="G380" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H380" t="s">
         <v>15</v>
@@ -35751,7 +35749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>312.39398084815326</v>
       </c>
@@ -35771,7 +35769,7 @@
         <v>374</v>
       </c>
       <c r="G381" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H381" t="s">
         <v>15</v>
@@ -35846,7 +35844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>508.31737346101232</v>
       </c>
@@ -35863,7 +35861,7 @@
         <v>427</v>
       </c>
       <c r="G382" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H382" t="s">
         <v>15</v>
@@ -35935,7 +35933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>614.40796473628222</v>
       </c>
@@ -35952,7 +35950,7 @@
         <v>428</v>
       </c>
       <c r="G383" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H383" t="s">
         <v>15</v>
@@ -36024,7 +36022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>933.60465116279079</v>
       </c>
@@ -36041,7 +36039,7 @@
         <v>429</v>
       </c>
       <c r="G384" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H384" t="s">
         <v>15</v>
@@ -36113,7 +36111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>517.81805745554038</v>
       </c>
@@ -36130,7 +36128,7 @@
         <v>430</v>
       </c>
       <c r="G385" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H385" t="s">
         <v>15</v>
@@ -36202,7 +36200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>487.42989056087555</v>
       </c>
@@ -36219,7 +36217,7 @@
         <v>431</v>
       </c>
       <c r="G386" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H386" t="s">
         <v>15</v>
@@ -36288,7 +36286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>328.31737346101232</v>
       </c>
@@ -36308,7 +36306,7 @@
         <v>433</v>
       </c>
       <c r="G387" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H387" t="s">
         <v>15</v>
@@ -36383,7 +36381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>617.09986320109442</v>
       </c>
@@ -36400,7 +36398,7 @@
         <v>434</v>
       </c>
       <c r="G388" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H388" t="s">
         <v>15</v>
@@ -36469,7 +36467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1244.0766073871409</v>
       </c>
@@ -36486,7 +36484,7 @@
         <v>435</v>
       </c>
       <c r="G389" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H389" t="s">
         <v>15</v>
@@ -36558,7 +36556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1543.9562243502053</v>
       </c>
@@ -36575,7 +36573,7 @@
         <v>436</v>
       </c>
       <c r="G390" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H390" t="s">
         <v>15</v>
@@ -36647,7 +36645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1466.1474008207936</v>
       </c>
@@ -36664,7 +36662,7 @@
         <v>437</v>
       </c>
       <c r="G391" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H391" t="s">
         <v>15</v>
@@ -36733,7 +36731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3363.36069311446</v>
       </c>
@@ -36750,7 +36748,7 @@
         <v>438</v>
       </c>
       <c r="G392" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H392" t="s">
         <v>15</v>
@@ -36822,7 +36820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>3857.821477428181</v>
       </c>
@@ -36839,7 +36837,7 @@
         <v>439</v>
       </c>
       <c r="G393" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H393" t="s">
         <v>15</v>
@@ -36911,7 +36909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>174.77154582763342</v>
       </c>
@@ -36928,7 +36926,7 @@
         <v>440</v>
       </c>
       <c r="G394" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H394" t="s">
         <v>36</v>
@@ -36997,7 +36995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>239.32816537467718</v>
       </c>
@@ -37014,7 +37012,7 @@
         <v>441</v>
       </c>
       <c r="G395" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H395" t="s">
         <v>36</v>
@@ -37089,7 +37087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>232.84313725490196</v>
       </c>
@@ -37106,7 +37104,7 @@
         <v>442</v>
       </c>
       <c r="G396" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H396" t="s">
         <v>36</v>
@@ -37178,7 +37176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>280.73962608299132</v>
       </c>
@@ -37195,7 +37193,7 @@
         <v>443</v>
       </c>
       <c r="G397" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H397" t="s">
         <v>36</v>
@@ -37273,7 +37271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>447.45858033135755</v>
       </c>
@@ -37290,7 +37288,7 @@
         <v>444</v>
       </c>
       <c r="G398" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H398" t="s">
         <v>36</v>
@@ -37368,7 +37366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>520.99350205198357</v>
       </c>
@@ -37385,7 +37383,7 @@
         <v>445</v>
       </c>
       <c r="G399" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H399" t="s">
         <v>36</v>
@@ -37463,7 +37461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>679.70930232558146</v>
       </c>
@@ -37480,7 +37478,7 @@
         <v>446</v>
       </c>
       <c r="G400" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H400" t="s">
         <v>36</v>
@@ -37555,7 +37553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1406.216370269038</v>
       </c>
@@ -37572,7 +37570,7 @@
         <v>447</v>
       </c>
       <c r="G401" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H401" t="s">
         <v>36</v>
@@ -37647,7 +37645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2116.2158002735978</v>
       </c>
@@ -37664,7 +37662,7 @@
         <v>448</v>
       </c>
       <c r="G402" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H402" t="s">
         <v>36</v>
@@ -37739,7 +37737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>451.29958960328321</v>
       </c>
@@ -37759,7 +37757,7 @@
         <v>433</v>
       </c>
       <c r="G403" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H403" t="s">
         <v>36</v>
@@ -37837,7 +37835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>695.8686730506156</v>
       </c>
@@ -37854,7 +37852,7 @@
         <v>450</v>
       </c>
       <c r="G404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H404" t="s">
         <v>36</v>
@@ -37929,7 +37927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>621.33891928864568</v>
       </c>
@@ -37946,7 +37944,7 @@
         <v>451</v>
       </c>
       <c r="G405" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H405" t="s">
         <v>36</v>
@@ -38018,7 +38016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1197.4008207934337</v>
       </c>
@@ -38035,7 +38033,7 @@
         <v>452</v>
       </c>
       <c r="G406" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H406" t="s">
         <v>36</v>
@@ -38110,7 +38108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2151.7390560875515</v>
       </c>
@@ -38127,7 +38125,7 @@
         <v>453</v>
       </c>
       <c r="G407" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H407" t="s">
         <v>36</v>
@@ -38199,7 +38197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3218.0711354309169</v>
       </c>
@@ -38216,7 +38214,7 @@
         <v>454</v>
       </c>
       <c r="G408" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H408" t="s">
         <v>36</v>
@@ -38292,6 +38290,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH408"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>